--- a/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_3/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_3/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.141</v>
+        <v>0.542</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.69</v>
+        <v>16.424</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.736</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.931</v>
+        <v>14.443</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.275</v>
+        <v>0.884</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.534</v>
+        <v>9.006</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>13.76510521151122</v>
+        <v>3.838712720300762</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24.31753481611157</v>
+        <v>11.96151604657938</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28.01300750224992</v>
+        <v>17.2568098139911</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>11.598025448554</v>
+        <v>-5.363228242137652</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>22.64594656863282</v>
+        <v>13.65968157992175</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>26.56169741120603</v>
+        <v>17.86617299532777</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>15.70989056056031</v>
+        <v>-0.6146585826985387</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>25.91732620954206</v>
+        <v>29.98993459932565</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.56842789349996</v>
+        <v>35.00774074322142</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>27.35382720144533</v>
+        <v>28.73202295457305</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>31.33297692123266</v>
+        <v>32.8119126520199</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>33.03901415663962</v>
+        <v>36.19000929287894</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>20.19906896853743</v>
+        <v>4.067609418900176</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>30.0821428407961</v>
+        <v>19.26602616016932</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>33.55330707797469</v>
+        <v>28.38518239605922</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>16.61251931182302</v>
+        <v>12.63455930845983</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>27.30390778858938</v>
+        <v>27.7215212039727</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>31.06525519461359</v>
+        <v>35.27518496145974</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>14.24924381386959</v>
+        <v>3.00513999196265</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>25.44781098032884</v>
+        <v>17.94653049889338</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.43074772416884</v>
+        <v>28.87436509298367</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>18.4214338483712</v>
+        <v>3.857340032905384</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>28.76797252359839</v>
+        <v>34.90917006604251</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>32.48163700480792</v>
+        <v>47.82721116471318</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>30.37106678245652</v>
+        <v>35.44863173457973</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>34.4239009431958</v>
+        <v>45.17445950877048</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>36.16650341827474</v>
+        <v>55.68729060257901</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>23.17428442974368</v>
+        <v>10.65004505715116</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>33.20539413858027</v>
+        <v>41.28303200493581</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>36.72643535143427</v>
+        <v>49.15284347636295</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>23.1295473381813</v>
+        <v>15.13706154677571</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>33.8552791563848</v>
+        <v>33.31047481367817</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>37.62198936065103</v>
+        <v>43.28571285225608</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>20.94908169129753</v>
+        <v>3.755329191074097</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>32.18288858904837</v>
+        <v>25.76868809701519</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>36.174595777607</v>
+        <v>36.38159428562885</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>25.11752681913657</v>
+        <v>7.605202687954474</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>35.49834156027962</v>
+        <v>46.01998065071886</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>39.21807450212216</v>
+        <v>62.05689133331934</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>37.23327843364123</v>
+        <v>57.02574237536341</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>41.306106987109</v>
+        <v>67.91691921460553</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>43.04084530172712</v>
+        <v>79.13330956102324</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.98439391770128</v>
+        <v>15.71129264142566</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>40.04850205617568</v>
+        <v>55.30433784025793</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>43.57370000163181</v>
+        <v>68.15752018300496</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>12.67073252471639</v>
+        <v>9.256694980271746</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>23.36022525298885</v>
+        <v>31.04689565044505</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>27.05697492841078</v>
+        <v>37.91210529653974</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>10.53823309085935</v>
+        <v>4.570399701629825</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>21.73012485372064</v>
+        <v>37.28909065475649</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>25.64696711120886</v>
+        <v>41.65056746779824</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>14.67095760839675</v>
+        <v>10.97023037542381</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>25.01221762589094</v>
+        <v>58.04835368513316</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>28.66465561703913</v>
+        <v>63.86691577834326</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>26.40250619950343</v>
+        <v>55.56963424092284</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>30.41484022352731</v>
+        <v>65.17215912845607</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>32.11355961747958</v>
+        <v>65.29422584210012</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>19.12991576258435</v>
+        <v>11.84485526153925</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>29.14626186233437</v>
+        <v>44.04239446701705</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>32.61664677030112</v>
+        <v>52.13031124125725</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>15.52920751034915</v>
+        <v>7.24238047392187</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>26.35735916362059</v>
+        <v>33.90434276477201</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>30.11996321448889</v>
+        <v>41.03165264168662</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>13.1987317196038</v>
+        <v>1.155586821774008</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>24.54090084360486</v>
+        <v>28.20384712671991</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>28.52482565968124</v>
+        <v>37.52189182089425</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>17.39337804034582</v>
+        <v>4.566964097733816</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>27.87338054293202</v>
+        <v>49.93942159651887</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>31.58831298908671</v>
+        <v>61.56463798178366</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>29.43124352039052</v>
+        <v>48.10810056265852</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>33.51665788275453</v>
+        <v>62.80621889684865</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>35.25172178729224</v>
+        <v>68.97027247356054</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>22.11790480291025</v>
+        <v>9.293994601730915</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>32.28153018621943</v>
+        <v>53.53873304752189</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>35.80199292749255</v>
+        <v>59.95046669315475</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>22.19800991420716</v>
+        <v>8.748663244334338</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>33.06416306067385</v>
+        <v>38.85015106689819</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>36.83140749933015</v>
+        <v>48.35504943282204</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>20.04758508017767</v>
+        <v>-0.3536877564051935</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>31.42889747679863</v>
+        <v>34.19103944704678</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>35.42084145770144</v>
+        <v>42.87859939084215</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>24.24311408688214</v>
+        <v>6.397083691438539</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>34.76112870733827</v>
+        <v>59.52736029245555</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>38.48133452950313</v>
+        <v>74.27780035338704</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>36.45061634297825</v>
+        <v>66.84587583721886</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>40.55748961623034</v>
+        <v>82.59792300246717</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>42.28450213595673</v>
+        <v>90.17320149877789</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>29.08350915268396</v>
+        <v>10.54072413794519</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>39.28366401239718</v>
+        <v>65.79186812805749</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>42.80734242723884</v>
+        <v>76.39005461828661</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>12.48721358721003</v>
+        <v>12.27945935614314</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>23.17899665407259</v>
+        <v>30.43309383203403</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>26.87230121702209</v>
+        <v>33.85153027276822</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>10.34983015436841</v>
+        <v>3.86993548653227</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>21.54401625179172</v>
+        <v>33.95788705877554</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>25.45714797250297</v>
+        <v>35.1839870931105</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>14.48518327155056</v>
+        <v>11.60028874966396</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>24.82856806124258</v>
+        <v>55.51997817195978</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>28.47752056576466</v>
+        <v>57.55178892060236</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>26.22473953964489</v>
+        <v>54.66640618868728</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>30.23759482549021</v>
+        <v>61.24898685570632</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>31.93586161928332</v>
+        <v>59.89759164939021</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>18.95160942642654</v>
+        <v>13.7070941095178</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>28.96982020532684</v>
+        <v>40.39095303601333</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>32.43734808891617</v>
+        <v>46.32638802861958</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>15.37871461058455</v>
+        <v>18.48901230716241</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>26.20937258964579</v>
+        <v>42.2761934097111</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>29.96845944013853</v>
+        <v>45.94826858401133</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>13.04383116324195</v>
+        <v>8.607512119303848</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>24.38851912228363</v>
+        <v>34.00548058886919</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>28.36865812544656</v>
+        <v>40.07808687426488</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>17.24120164854807</v>
+        <v>13.92087204401055</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>27.723535190809</v>
+        <v>57.00133308737763</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>31.43491307389975</v>
+        <v>64.76040718997423</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>29.28719819197572</v>
+        <v>56.69165252713567</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>33.37314906935151</v>
+        <v>68.0396006825372</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>35.10775362482426</v>
+        <v>72.49205054158433</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>21.97308479644067</v>
+        <v>19.5819077723461</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>32.13874053837195</v>
+        <v>58.87848081623234</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>35.6562931004573</v>
+        <v>63.29306991470848</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>22.05118303586692</v>
+        <v>17.97822582353554</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>32.91988756317078</v>
+        <v>45.35603847136362</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>36.6838548277664</v>
+        <v>51.34887447481329</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>19.89609064967561</v>
+        <v>5.0602592015738</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>31.27996405558664</v>
+        <v>38.10756847598184</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>35.2683909229418</v>
+        <v>43.46605021778954</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>24.09436769177564</v>
+        <v>13.93639270977336</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>34.61475429567987</v>
+        <v>64.93853690379198</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>38.33165057998951</v>
+        <v>75.76891951924991</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>36.31008331321427</v>
+        <v>73.57268769137066</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>40.41758899960857</v>
+        <v>85.98829960984666</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>42.14414823984198</v>
+        <v>91.98310187437924</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>28.94205729424266</v>
+        <v>18.93257041045557</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>39.14430787718118</v>
+        <v>69.41567768095665</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>42.66528795973007</v>
+        <v>77.86469684685822</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>12.29904587872066</v>
+        <v>8.424292682823179</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>22.83646527494668</v>
+        <v>14.04427851117957</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>26.52242373000174</v>
+        <v>18.35357269052268</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>10.08490565508371</v>
+        <v>-1.988915633743673</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>21.11691920318374</v>
+        <v>14.34371556957312</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>25.02278851173861</v>
+        <v>17.74726660050236</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>14.19021262638394</v>
+        <v>2.46321548702376</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>24.38291774247898</v>
+        <v>30.18850323402823</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>28.02470418926464</v>
+        <v>33.89191830575332</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>25.80874650211984</v>
+        <v>28.10145589671289</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>29.78328885156</v>
+        <v>30.16067569610082</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>31.48534138783003</v>
+        <v>33.80344723250029</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>18.6711555410112</v>
+        <v>13.37871751114888</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>28.54020382936672</v>
+        <v>24.72457975151666</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>32.00218846751541</v>
+        <v>31.96111887398827</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>15.15684126473097</v>
+        <v>12.83108260293825</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>25.8332351874845</v>
+        <v>24.91016329849704</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>29.5851030782968</v>
+        <v>31.04237197745074</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>12.74653427520111</v>
+        <v>2.282341528300279</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>23.92918832255956</v>
+        <v>14.15724738828244</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>27.90228782328011</v>
+        <v>23.75352001129905</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>27.24417084419661</v>
+        <v>30.31341459735178</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>30.94855736485881</v>
+        <v>41.39934558922651</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>28.83616073474892</v>
+        <v>29.35909880347963</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>32.88436199172961</v>
+        <v>37.05904084550299</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>34.62296873096795</v>
+        <v>47.5545156526553</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>21.65635120990007</v>
+        <v>14.38913359169634</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>31.67337493091826</v>
+        <v>40.48145491781192</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>35.18527826214319</v>
+        <v>46.06866810018856</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>21.77258054122613</v>
+        <v>17.41716705828601</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>32.48416054084036</v>
+        <v>32.33334798532915</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>36.24169829466339</v>
+        <v>40.87230769757544</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>19.54534315202397</v>
+        <v>3.77632222381645</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>30.76410455761121</v>
+        <v>22.48229229728064</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>34.74632195354292</v>
+        <v>31.73938759056408</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>23.70884569925685</v>
+        <v>7.642187834487075</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>34.07573046157654</v>
+        <v>42.49698411421751</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>37.78650728198333</v>
+        <v>56.69901851169438</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>35.79917882891059</v>
+        <v>51.38569958710777</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>39.86759797715892</v>
+        <v>60.21926592606924</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>41.59853466557901</v>
+        <v>71.39866690736604</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>28.56617719134852</v>
+        <v>20.4503412019363</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>38.61694074053963</v>
+        <v>55.31694166499317</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>42.13329748646306</v>
+        <v>65.67461844390054</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>15.3128102791224</v>
+        <v>11.91847489468894</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>25.87942061418606</v>
+        <v>27.81510650833296</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>29.55786570212041</v>
+        <v>31.012147407245</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>13.17568884665124</v>
+        <v>3.341731679869568</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>24.23879853301429</v>
+        <v>30.62342817818954</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>28.13700025110875</v>
+        <v>32.75591193637997</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>17.28392062593061</v>
+        <v>10.89499219659014</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>27.50552349737967</v>
+        <v>51.56737616414132</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>31.14011014690124</v>
+        <v>53.93934696045217</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>28.92922325346319</v>
+        <v>47.79642138794271</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>32.91116347385244</v>
+        <v>52.83354056390688</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>34.60723360834835</v>
+        <v>54.13035343964829</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>21.76486666739419</v>
+        <v>17.79024071340011</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>31.65845200025814</v>
+        <v>37.94050881264117</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>35.11279201101962</v>
+        <v>44.04960230999653</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>18.24107077388716</v>
+        <v>22.74727237566283</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>28.94665439378687</v>
+        <v>45.25849757627877</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>32.68984708188206</v>
+        <v>49.09669293065697</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>15.90898022687706</v>
+        <v>12.86999280407564</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>27.12273409346144</v>
+        <v>36.03354848078983</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>31.08690374393455</v>
+        <v>43.12323231454239</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>30.43870598585347</v>
+        <v>57.53351747090151</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>34.13472485879635</v>
+        <v>66.07182658406852</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>32.02921550270145</v>
+        <v>56.17956463004678</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>36.08475688891295</v>
+        <v>67.01767934407165</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>37.81692144076816</v>
+        <v>74.82128384800062</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>24.82288875615805</v>
+        <v>27.91260993517245</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>34.86430512578147</v>
+        <v>63.3559597207615</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>38.36755870494049</v>
+        <v>66.7965607341646</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>24.71372885108995</v>
+        <v>20.09522019974143</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>35.45222614869718</v>
+        <v>44.79601537784377</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>39.20178093408059</v>
+        <v>51.45920538609845</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>22.56293094036338</v>
+        <v>7.460419737937272</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>33.81041085558726</v>
+        <v>36.64625342352811</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>37.7843992246726</v>
+        <v>43.80464942437793</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>26.72853999574259</v>
+        <v>14.26273699505576</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>37.12211319821907</v>
+        <v>61.48276366199063</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>40.82517642552698</v>
+        <v>73.61233434620753</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>38.84377434298548</v>
+        <v>70.63975756722961</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>42.9190484635199</v>
+        <v>82.50355036796374</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>44.64387364096187</v>
+        <v>91.08002598902728</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>31.58589522965183</v>
+        <v>26.38000369500698</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>41.6591940291724</v>
+        <v>70.23632689335984</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>45.1675051293673</v>
+        <v>78.78006259979325</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>10.12729580831307</v>
+        <v>4.534931948966872</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>20.62464205426727</v>
+        <v>27.57106217617063</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>24.25440759482961</v>
+        <v>31.57815315020061</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>7.969575065081163</v>
+        <v>-0.823627120664824</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>18.95879459371012</v>
+        <v>35.36746120969322</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>22.80575376986553</v>
+        <v>37.09075212287301</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>12.03289131824694</v>
+        <v>8.162355390266114</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>22.18676802888872</v>
+        <v>58.59138657987178</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>25.77366338558882</v>
+        <v>60.94047253541653</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>23.54737015792332</v>
+        <v>50.77153533584858</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>27.48682971064774</v>
+        <v>57.65910671828142</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>29.15622156377293</v>
+        <v>58.47278773408762</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>16.41645743372145</v>
+        <v>6.900716134431192</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>26.24687120993181</v>
+        <v>36.27153987870379</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>29.65420284381987</v>
+        <v>41.60869299287064</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>13.1744954938666</v>
+        <v>15.67488951994908</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>23.81038807310249</v>
+        <v>46.24780823960508</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>27.50453224046393</v>
+        <v>49.3792056766262</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>10.82470559194634</v>
+        <v>6.581684795874381</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>21.96400821540005</v>
+        <v>40.14485249506087</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>25.87653065267424</v>
+        <v>45.43453464693887</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>14.95010678202219</v>
+        <v>13.49931451789497</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>25.2425815426203</v>
+        <v>65.2718256688858</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>28.89054854865492</v>
+        <v>72.0681083418033</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>26.77063434710697</v>
+        <v>58.69183793323997</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>30.78250199549045</v>
+        <v>71.55023467734357</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>32.48775112176577</v>
+        <v>78.10028340611585</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>19.59874690422272</v>
+        <v>19.01754069538292</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>29.57615595604504</v>
+        <v>64.57746951139977</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>33.03235410834617</v>
+        <v>66.53656643819868</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>19.84681259904114</v>
+        <v>13.46663442402321</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>17.67204152304379</v>
+        <v>0.3183310053762654</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>28.85116808685786</v>
+        <v>39.80188684362325</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>32.77178096850864</v>
+        <v>44.75697186520615</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>21.79952578884986</v>
+        <v>10.40711415974441</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>32.13061581507912</v>
+        <v>68.43575400311765</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>35.78398644227466</v>
+        <v>78.47134880074218</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>33.78637409529495</v>
+        <v>72.07341431248126</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>37.81993022454513</v>
+        <v>85.35372230798326</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>39.51722694901358</v>
+        <v>92.81301902096722</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>26.55996713546576</v>
+        <v>15.72513242447938</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>36.57456772793354</v>
+        <v>70.60470579042907</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>40.03423374494216</v>
+        <v>76.75728313062457</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>7.92845163733255</v>
+        <v>0.7263492998051362</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>18.400633943657</v>
+        <v>5.06250951598183</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>22.05135850436384</v>
+        <v>9.266334856258155</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>5.718153337077103</v>
+        <v>-7.689837191559846</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>16.68046676656289</v>
+        <v>9.712270418176402</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>20.5488959824585</v>
+        <v>11.39693700317615</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>9.788259191081083</v>
+        <v>-2.00207310209025</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>19.91707012692798</v>
+        <v>25.02877205931186</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>23.52417291645032</v>
+        <v>28.57033948662884</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>21.29528067177993</v>
+        <v>27.03512953139189</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>25.22968352957709</v>
+        <v>31.19411526870825</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>26.91258102832984</v>
+        <v>32.13590490329007</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>14.17962121764357</v>
+        <v>-0.3684673488382515</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>23.99031091743068</v>
+        <v>13.59027192068898</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>27.41857916242734</v>
+        <v>20.16853616134681</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>10.87965699766863</v>
+        <v>13.21838128246797</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>21.49041881369387</v>
+        <v>25.6157160268949</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>25.20726553676691</v>
+        <v>32.55531075406695</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>8.476056424184522</v>
+        <v>4.52875858326378</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>19.58850771248049</v>
+        <v>19.39570704026555</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>23.52438742476917</v>
+        <v>28.35132211130924</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>12.60757207013549</v>
+        <v>7.7948209112309</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>22.87502279884747</v>
+        <v>36.63701589612667</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>26.54495053794618</v>
+        <v>48.41202487913007</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>24.42055075104771</v>
+        <v>39.05141536140432</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>28.42746215428752</v>
+        <v>48.5274862568602</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>30.14694281091593</v>
+        <v>55.914697777402</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>17.26369734784241</v>
+        <v>11.90783931723472</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>27.22170471034453</v>
+        <v>41.52341621219661</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>30.7003388964577</v>
+        <v>47.89415526680664</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>17.60583273665718</v>
+        <v>15.02821016227433</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>28.25745107281986</v>
+        <v>31.54658916763582</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>31.97776447770812</v>
+        <v>40.34105132106903</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>15.37896999833257</v>
+        <v>3.931295195473311</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>26.53359887473209</v>
+        <v>26.97413986510979</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>30.47619368362735</v>
+        <v>35.0617689143573</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>19.51218248354574</v>
+        <v>10.65566496146788</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>29.82044337344481</v>
+        <v>47.95492276550503</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>33.49449155844771</v>
+        <v>62.19009827323138</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>31.49446204103299</v>
+        <v>59.98412368182592</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>35.52356660264958</v>
+        <v>70.24039414233503</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>37.23433910789487</v>
+        <v>78.91097654387751</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>24.28224141021614</v>
+        <v>15.44497775312992</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>34.27922833705915</v>
+        <v>55.74398322609635</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>37.76015445542443</v>
+        <v>66.16126565509042</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>14.35624009121891</v>
+        <v>-0.8298931770455482</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>25.03071048701916</v>
+        <v>3.141087073984025</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.75072009152606</v>
+        <v>8.861716073854794</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>12.17875565923646</v>
+        <v>-7.105556666983219</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>23.35426752673617</v>
+        <v>7.023226700146139</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>27.29679128156344</v>
+        <v>11.70052759149546</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>16.32782640784521</v>
+        <v>-5.267776170269158</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>26.65335226855386</v>
+        <v>21.601358829902</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>30.32921189812146</v>
+        <v>26.73426024420847</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>28.07283175035977</v>
+        <v>19.3115378170687</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>32.09490573824658</v>
+        <v>21.20559082605531</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>33.8097812709206</v>
+        <v>25.63330067460895</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>20.82418932049017</v>
+        <v>-2.004445948321077</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>30.82086467498814</v>
+        <v>6.915242744125081</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>34.31409931389882</v>
+        <v>13.7557147290339</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>17.3300307893182</v>
+        <v>-0.6275145688187393</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>28.14493641163943</v>
+        <v>9.15866569603061</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>31.93080743060347</v>
+        <v>16.09695865953064</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>14.95551564650829</v>
+        <v>-7.016666791021535</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>26.28325274493501</v>
+        <v>2.269855884285292</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>30.29289293156817</v>
+        <v>12.35403686567541</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>19.1662150513819</v>
+        <v>-9.122195299538546</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>29.6323023259832</v>
+        <v>17.08432993313035</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>33.37066686548285</v>
+        <v>28.9670145356403</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>31.22068730258436</v>
+        <v>16.63142073525482</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>35.3170270054804</v>
+        <v>23.95091292516044</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>37.06857607700164</v>
+        <v>35.25399903818713</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>23.92972046021494</v>
+        <v>-3.235148830897558</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>34.07576645843456</v>
+        <v>19.84723707072187</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>37.61884850685368</v>
+        <v>24.51666972128312</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>23.93648683382281</v>
+        <v>1.815637119026306</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>34.7867559116748</v>
+        <v>13.95583156014457</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>38.57880164065462</v>
+        <v>24.18755277907589</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>21.74483883804525</v>
+        <v>-7.348067715716311</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>33.10888072257989</v>
+        <v>8.152601165544823</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>37.12817537835341</v>
+        <v>18.82882719254887</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>25.95324248106929</v>
+        <v>-6.204406247658923</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>36.45462700300577</v>
+        <v>26.57483753054792</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>40.19984693287276</v>
+        <v>42.51047325515681</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>38.17529224694215</v>
+        <v>36.31446310838673</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>42.2923273699338</v>
+        <v>44.81655965736117</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>44.0362846818614</v>
+        <v>57.3664834777875</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>30.83112195054089</v>
+        <v>0.1234599482683194</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>41.01128954326781</v>
+        <v>31.8626734657832</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>44.55922859062147</v>
+        <v>41.9420739568228</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>13.28964155086705</v>
+        <v>7.846793996164095</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>23.91017795208434</v>
+        <v>30.9355995635869</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>27.58013052001264</v>
+        <v>36.72323515921035</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>11.20853496136255</v>
+        <v>5.40828365533163</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>22.32675244061088</v>
+        <v>43.53152644883029</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>26.21624143713641</v>
+        <v>46.20517355388485</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>15.31633664602821</v>
+        <v>14.06968665444391</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>25.58960439037098</v>
+        <v>65.24954250523744</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>29.21630388059271</v>
+        <v>68.96185745825871</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>26.98061895331312</v>
+        <v>62.12135249379229</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>30.96420244525171</v>
+        <v>69.06444713690165</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>32.65259939492645</v>
+        <v>69.52543745299685</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>19.75734768621008</v>
+        <v>15.28378542691651</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>29.70417784956192</v>
+        <v>47.17202794456942</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>33.15058120958003</v>
+        <v>57.47394046576905</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>16.21360753305602</v>
+        <v>3.990638931569791</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>26.97282120007831</v>
+        <v>32.23111464651559</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>30.70766616111048</v>
+        <v>37.39131771796993</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>13.93604021149172</v>
+        <v>-2.768468534762476</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>25.20455928295992</v>
+        <v>29.63030025082226</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>29.16012816210786</v>
+        <v>36.31787825533898</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>18.10593899744998</v>
+        <v>3.148949287099313</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>28.51797710124389</v>
+        <v>52.99038344087346</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>32.20623514581842</v>
+        <v>61.52556987926472</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>30.07720769094769</v>
+        <v>50.27683825979484</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>34.13356378071346</v>
+        <v>62.04802509365983</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>35.85820893778803</v>
+        <v>67.9126230055444</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>22.81346956918725</v>
+        <v>9.224622450962883</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>32.90767778567058</v>
+        <v>54.14016479137719</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>36.40327522900953</v>
+        <v>60.38770439387638</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>22.80969509131766</v>
+        <v>6.56777189638315</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>33.60679018823446</v>
+        <v>37.7771756791346</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>37.34601112662602</v>
+        <v>45.28548331983264</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>20.70886319608976</v>
+        <v>-2.408140692328104</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>32.01643791553518</v>
+        <v>36.95052065444933</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>35.97965776564995</v>
+        <v>43.11625647452134</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>24.87922618746046</v>
+        <v>6.584335583679334</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>35.32918254077274</v>
+        <v>63.62992572438488</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>39.02240891584216</v>
+        <v>75.22774144512708</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>37.01801069755891</v>
+        <v>70.97420400771905</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>41.09597624172338</v>
+        <v>83.26107630600298</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>42.81223647061157</v>
+        <v>90.21222350331841</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>29.70050318749379</v>
+        <v>12.28370268860938</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>39.83124075359886</v>
+        <v>67.61168607117973</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>43.32984629406857</v>
+        <v>78.07517197965136</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>6.702207206417155</v>
+        <v>5.038481308871283</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>17.20045366487473</v>
+        <v>4.990009877752229</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>20.87113225451543</v>
+        <v>12.61009326910745</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>4.444000852144761</v>
+        <v>-4.229574725877157</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>15.43534385262363</v>
+        <v>5.150537520271499</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>19.32353545905616</v>
+        <v>10.42817837819327</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>8.524835775746661</v>
+        <v>-1.867308962632862</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>18.68039032225152</v>
+        <v>17.83438552526805</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>22.30615246107699</v>
+        <v>25.79787986231345</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>20.05958638858533</v>
+        <v>18.45047025933182</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>24.0065727342683</v>
+        <v>20.92066915636228</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>25.69631418511231</v>
+        <v>25.60944099805964</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>12.92415227757941</v>
+        <v>-1.309917696239197</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>22.76479884830354</v>
+        <v>7.538641903265031</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>26.21048081085655</v>
+        <v>14.40026175346476</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>9.565200461423039</v>
+        <v>8.40245827052847</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>20.20142290123601</v>
+        <v>15.13190640314575</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>23.93899757985077</v>
+        <v>25.7774494597089</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>7.112847918744587</v>
+        <v>0.1766988056777024</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>18.25367464699126</v>
+        <v>6.214042554402241</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>22.21013001781108</v>
+        <v>19.05071834026366</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>11.25441091839825</v>
+        <v>-0.5532137249398232</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>21.54799669992203</v>
+        <v>19.54255225362233</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>25.23734413318593</v>
+        <v>36.09848592220989</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>23.09326319926603</v>
+        <v>19.79007053794656</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>27.11270304340579</v>
+        <v>27.0689910581208</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>28.83911996097333</v>
+        <v>39.40023565532714</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>15.91665681640766</v>
+        <v>1.333885215656167</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>25.90391705937043</v>
+        <v>23.28972060761812</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>29.40077193277835</v>
+        <v>31.75523317403015</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>16.30254448921939</v>
+        <v>13.24725819719107</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>26.97924686302578</v>
+        <v>23.52987218940321</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>30.72045951703338</v>
+        <v>36.7258446313743</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>14.02910680358168</v>
+        <v>1.864565124768447</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>25.21168700391792</v>
+        <v>15.39827023083508</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.17511405434443</v>
+        <v>27.95102985104229</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>18.17223405828591</v>
+        <v>4.787399245425135</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>28.50625006502462</v>
+        <v>32.69922176141593</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>32.19992688001394</v>
+        <v>52.48052451117458</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>30.1816873954882</v>
+        <v>41.51592900718153</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>34.22313986774225</v>
+        <v>49.97372352645446</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>35.94112964576808</v>
+        <v>64.50894249896187</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>22.95053603074605</v>
+        <v>6.863310554221513</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>32.97633373981689</v>
+        <v>39.03258581151486</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>36.47556229312488</v>
+        <v>52.22021806537602</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>10.26662154774439</v>
+        <v>-9.809716956204213</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>20.8645846577247</v>
+        <v>4.002063491052454</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>24.52717293769074</v>
+        <v>6.609447720712197</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>8.06570423080748</v>
+        <v>-19.59543021715736</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>19.1617579450011</v>
+        <v>4.308872515764008</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>23.04237032069294</v>
+        <v>4.897793657093061</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>12.16844135585914</v>
+        <v>-13.62208366033492</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>22.42097068316813</v>
+        <v>24.7854519493476</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>26.03948240167912</v>
+        <v>26.29457810360365</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>23.78960288378209</v>
+        <v>22.66804776588755</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>27.76935112582247</v>
+        <v>27.75554201160044</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>29.45282915144018</v>
+        <v>25.80592206672175</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>16.5846501618937</v>
+        <v>-11.10628643404955</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>26.514379528273</v>
+        <v>9.412349382670087</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>29.95187353887943</v>
+        <v>12.21232864125675</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>13.26349047677769</v>
+        <v>14.63932105807218</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>24.00029824260561</v>
+        <v>35.61942934450032</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>27.72828882227169</v>
+        <v>38.4550021426757</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>10.86865325922518</v>
+        <v>4.641852627842226</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>22.1151133257243</v>
+        <v>25.91447784477022</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>26.06235011544988</v>
+        <v>31.16009816076392</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>15.03339316762926</v>
+        <v>8.581846291564588</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>25.42480691990459</v>
+        <v>47.91887200855236</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>29.1053831678978</v>
+        <v>55.02655931061905</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>26.96035570332814</v>
+        <v>46.69132064073303</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>31.01295360570296</v>
+        <v>57.31036575438965</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>32.73245342488609</v>
+        <v>61.23003826562139</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>19.71394852840564</v>
+        <v>15.23301734837786</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>29.79087660857691</v>
+        <v>50.18717392578195</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>33.27816488725617</v>
+        <v>52.01784936325383</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>19.99332045732623</v>
+        <v>15.22784602267508</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>30.76876143561875</v>
+        <v>39.5158473457296</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>34.50205046725785</v>
+        <v>44.84245580415167</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>17.77698022674685</v>
+        <v>1.107886468590621</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>29.06322569913521</v>
+        <v>29.66232610394873</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>33.01920254834609</v>
+        <v>34.37681369566361</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>21.94390079680354</v>
+        <v>8.765244681756698</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>32.37391141479394</v>
+        <v>55.67798428829924</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>36.06044639909729</v>
+        <v>66.05281895999865</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>34.03972302412598</v>
+        <v>63.21396676048995</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>38.11394293271503</v>
+        <v>74.97663225313165</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>39.82579244277873</v>
+        <v>80.44760993876538</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>26.73884508631182</v>
+        <v>14.77414534915535</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>36.85289577764331</v>
+        <v>60.50809937788931</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>40.34406342855426</v>
+        <v>66.39528925182843</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>8.131209849985884</v>
+        <v>8.236963282108931</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>18.65457982819391</v>
+        <v>10.88879517972005</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>22.31251428327332</v>
+        <v>13.35957365815328</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>5.901541714657176</v>
+        <v>-0.573300001233136</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>16.91877655137823</v>
+        <v>12.34222527543936</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>20.79402264505925</v>
+        <v>12.71758905692427</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>9.984432572071068</v>
+        <v>1.908210785094312</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>20.16397330401011</v>
+        <v>26.28296831412523</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>23.77764101366445</v>
+        <v>27.82220382110332</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>21.53577214480928</v>
+        <v>26.14270943269968</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>25.48974087586438</v>
+        <v>26.82987408550009</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>27.17414257460366</v>
+        <v>27.15955835662889</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>14.38358299343475</v>
+        <v>5.647581050710542</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>24.24616027359497</v>
+        <v>13.97576852345192</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>27.68095808295722</v>
+        <v>15.80212003401563</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>10.92749577703684</v>
+        <v>4.530509607379358</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>21.5883252842572</v>
+        <v>12.74892093697967</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>25.31282469375522</v>
+        <v>16.78733499914692</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>8.501815717125568</v>
+        <v>-3.574457960045791</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>19.66799164130567</v>
+        <v>4.525578659935221</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>23.61114612900108</v>
+        <v>11.02812019107323</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>12.64565860811038</v>
+        <v>-4.249014776379639</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>22.9627154800034</v>
+        <v>19.31260240177777</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>26.63963445936594</v>
+        <v>27.8690418381572</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>24.49996371900644</v>
+        <v>18.91144818922486</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>28.5262833057073</v>
+        <v>23.98435487194963</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>30.24716991011805</v>
+        <v>30.47355382810211</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>17.30702052913263</v>
+        <v>0.2126307791783546</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>27.31570451713021</v>
+        <v>20.58932001885712</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>30.80128555845875</v>
+        <v>22.33866920413446</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>17.73786231416123</v>
+        <v>13.13697295539116</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>28.43968279039299</v>
+        <v>25.94528760637043</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>32.16791282558764</v>
+        <v>31.43114066532671</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>15.49196071015673</v>
+        <v>0.4363559088112225</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>26.7004239459756</v>
+        <v>17.24824094672381</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>30.65064537155219</v>
+        <v>22.22456046655255</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>19.63863661360093</v>
+        <v>4.208305942889908</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>29.9966097623175</v>
+        <v>36.78658801757807</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>33.67793838128695</v>
+        <v>47.45893534587627</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>31.66422345919528</v>
+        <v>44.38637085074582</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>35.71260910068716</v>
+        <v>50.56725992525899</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>37.42510589488161</v>
+        <v>58.3194701896585</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>24.41565608253244</v>
+        <v>7.9298216909405</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>34.4633672921002</v>
+        <v>40.18015855635424</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>37.95139530313141</v>
+        <v>45.20632764429679</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>4.977409508654269</v>
+        <v>2.826821327090144</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>15.4083655810437</v>
+        <v>0.2397464883806464</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>19.03698789804013</v>
+        <v>0.2043409786435717</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>2.677097251970071</v>
+        <v>-5.163769554821712</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>13.5974914673119</v>
+        <v>1.199925990785161</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>17.44172349815324</v>
+        <v>-0.4451754213750263</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>6.72494203495244</v>
+        <v>-6.02875110159836</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>16.81494756461316</v>
+        <v>11.61374854093914</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>20.3996007978929</v>
+        <v>10.70035064264867</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>18.16707776925482</v>
+        <v>8.806243444234738</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>22.0883963111265</v>
+        <v>7.642239950508113</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>23.75964013679506</v>
+        <v>6.772896364501449</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>11.08883134067093</v>
+        <v>-2.200056516815877</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>20.86527112492904</v>
+        <v>-0.1417789879497349</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>24.27155131409783</v>
+        <v>-0.6352187379617789</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>7.842636742250289</v>
+        <v>1.459728239792142</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>18.41076494452392</v>
+        <v>4.617577728693973</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>22.10559197109264</v>
+        <v>6.1482302018252</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>5.349195251586824</v>
+        <v>-4.800451453569522</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>16.41817143811133</v>
+        <v>-2.620297484814941</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>20.32995367667838</v>
+        <v>1.691347121031001</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>9.457953826201413</v>
+        <v>-8.700104456143848</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>19.68516279182641</v>
+        <v>8.460571259531477</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>23.33273065893446</v>
+        <v>14.45048454841138</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>21.20179327030228</v>
+        <v>5.616794378704967</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>25.19514050125779</v>
+        <v>9.072358599932514</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>26.90260748770223</v>
+        <v>14.18555303462749</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>14.08242119777101</v>
+        <v>-4.215596088444968</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>24.00448807260782</v>
+        <v>9.910070611274492</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>27.46133683319081</v>
+        <v>9.454990843049004</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>14.72720382135621</v>
+        <v>12.85928656088738</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>25.33688334555524</v>
+        <v>20.20434393959447</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.0359047021556</v>
+        <v>23.46041960350142</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>12.41275050298576</v>
+        <v>0.903045109686488</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>23.52459082331171</v>
+        <v>11.39898710822463</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>27.44393722019402</v>
+        <v>14.49167464819236</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>16.52557300830178</v>
+        <v>1.821878018433935</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>26.7942212828337</v>
+        <v>27.55019948301064</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>30.44667664793558</v>
+        <v>35.93533689570567</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>28.43991181215836</v>
+        <v>32.15144279950813</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>32.45537112525848</v>
+        <v>36.83457675248501</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>34.15483083668434</v>
+        <v>43.22656342042838</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>21.26422752214723</v>
+        <v>5.38694266029789</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>31.22576882768762</v>
+        <v>30.76745138664135</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>34.68553764481477</v>
+        <v>33.86057543995774</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>14.36968235732279</v>
+        <v>20.12367349349388</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>25.04283262728983</v>
+        <v>28.1011601090225</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>28.77847227902392</v>
+        <v>32.84395359220919</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>12.17490701187591</v>
+        <v>6.725200326094338</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>23.34872092739793</v>
+        <v>25.15550100758178</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>27.30735507790785</v>
+        <v>28.37411504702202</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>16.34092554047786</v>
+        <v>13.99542037959348</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>26.66471071850271</v>
+        <v>44.60174770578716</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>30.35578100487859</v>
+        <v>48.58525987193399</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>28.09494586018245</v>
+        <v>43.54218053964586</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>32.11718814720521</v>
+        <v>46.41563709868832</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>33.84049654664057</v>
+        <v>47.74435049641708</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>20.84336160245804</v>
+        <v>22.19192809109698</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>30.84050219839547</v>
+        <v>36.2394149072319</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>34.34972357906173</v>
+        <v>43.5907463908628</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>17.24955079337949</v>
+        <v>12.94271626060795</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>28.06320483106226</v>
+        <v>26.7368147087703</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>31.86557543269053</v>
+        <v>32.79500948449187</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>14.85596226478435</v>
+        <v>-0.9923473362654391</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>26.18209497015259</v>
+        <v>12.28054429396589</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>30.20877889740056</v>
+        <v>21.21700412750214</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>19.08311318967862</v>
+        <v>2.097504237532846</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>29.54754104943076</v>
+        <v>31.94297514292192</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>33.30198375622723</v>
+        <v>42.82206994029472</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>31.14642882733936</v>
+        <v>31.52044726808076</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>35.24299693899263</v>
+        <v>39.55382263848368</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>37.00336326017643</v>
+        <v>47.31503671253056</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>23.85262604831195</v>
+        <v>11.11130118576621</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>33.99942434914087</v>
+        <v>39.0120945728291</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>37.55921566859095</v>
+        <v>44.5691856514082</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>23.87798559169699</v>
+        <v>19.77556434787142</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>34.72831267633198</v>
+        <v>36.87356800994188</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>38.53563764433061</v>
+        <v>45.29277970882107</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>21.66840820680547</v>
+        <v>3.250525312192153</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>33.03222652138834</v>
+        <v>23.80964028966237</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>37.06729072222731</v>
+        <v>32.27616648813448</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>25.89278983371944</v>
+        <v>9.706888831212794</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>36.39380158812426</v>
+        <v>47.16943811078225</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>40.15391323891495</v>
+        <v>61.13112715754012</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>38.12566899700202</v>
+        <v>56.85978938679843</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>42.24313893373812</v>
+        <v>66.06211404078466</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>43.99529573663085</v>
+        <v>74.67190386951201</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>30.77819546385783</v>
+        <v>19.35650209819973</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>40.96015274017731</v>
+        <v>56.62020032108099</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>44.52369292648511</v>
+        <v>66.97117468714588</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>10.63153037142554</v>
+        <v>15.11015499458641</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>21.16637077911659</v>
+        <v>31.35800477645735</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>24.82777161086052</v>
+        <v>38.41557022336393</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>8.45416075944347</v>
+        <v>8.05171831451473</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>19.48454081154262</v>
+        <v>34.21262578854213</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>23.36298269121022</v>
+        <v>39.11777509693597</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>12.53893796576963</v>
+        <v>13.98047644657647</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>22.73072517816801</v>
+        <v>53.09853974905842</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>26.3474981355581</v>
+        <v>59.78649518712406</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>24.10681840484499</v>
+        <v>52.79640645735303</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>28.0649991991326</v>
+        <v>60.91618355503302</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>29.74804262068464</v>
+        <v>62.25893020896005</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>16.93911076091432</v>
+        <v>14.80688203345336</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>26.81402382217653</v>
+        <v>40.94942390365868</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>30.25100851676956</v>
+        <v>49.19115594696667</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>13.41151474262491</v>
+        <v>8.908444935887033</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>24.08338111092685</v>
+        <v>29.92727813600389</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>27.81080962697851</v>
+        <v>38.11485530242801</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>11.03857195037548</v>
+        <v>2.431047804257148</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>22.2174330393061</v>
+        <v>23.07993133519314</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>26.16318816984835</v>
+        <v>33.70046261739388</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>15.18402074442708</v>
+        <v>4.764306208352465</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>25.5128976576567</v>
+        <v>42.14489037339585</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>29.1923804897499</v>
+        <v>55.45765130021657</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>27.05375499894855</v>
+        <v>41.80757082302274</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>31.08415755674961</v>
+        <v>54.62080375873917</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>32.80336733111484</v>
+        <v>62.33185162175523</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>19.84545059542877</v>
+        <v>7.703653549248074</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>29.86589956523867</v>
+        <v>45.18848105392836</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>33.35326912731465</v>
+        <v>53.1869030126977</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>20.04340890005058</v>
+        <v>9.284843506730326</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>30.7538675296889</v>
+        <v>33.81692164734888</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>34.48572874837869</v>
+        <v>44.49385563219435</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>17.84951609875128</v>
+        <v>-0.289770123541345</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>29.06815140137927</v>
+        <v>27.81173466988393</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>33.02172660913873</v>
+        <v>37.97336028366932</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>21.99613213301808</v>
+        <v>5.496803707455044</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>32.36359064391534</v>
+        <v>50.64746576368312</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>36.04817430105483</v>
+        <v>67.21642611569261</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>34.03516716778613</v>
+        <v>58.84200329997385</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>38.08698022097301</v>
+        <v>73.02677174017622</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>39.7982813162217</v>
+        <v>82.71345389469128</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>26.77348073382248</v>
+        <v>7.900383573193935</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>36.83083433238616</v>
+        <v>56.21044323535448</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>40.32125236183644</v>
+        <v>68.65598075935561</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>15.77760194301906</v>
+        <v>9.22549311734015</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>26.42345160079618</v>
+        <v>27.47897156589302</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>30.12583712019443</v>
+        <v>33.316884891344</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>13.67886364731822</v>
+        <v>4.700884066139096</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>24.82497800729147</v>
+        <v>34.97192739609081</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>28.74839917684439</v>
+        <v>39.35413163755616</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>17.80947390838488</v>
+        <v>10.84477296902456</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>28.1079797244526</v>
+        <v>54.35073335098177</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>31.76624211410206</v>
+        <v>59.18254574652637</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>29.55592668514842</v>
+        <v>50.48620566140535</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>33.56409918609478</v>
+        <v>56.78304426488843</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>35.27098418181646</v>
+        <v>59.12071293394418</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>22.34091051774822</v>
+        <v>13.66089830821959</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>32.30939685440972</v>
+        <v>39.41835771735101</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>35.78674181358343</v>
+        <v>50.05282708615111</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>18.61155083601998</v>
+        <v>8.487573359532703</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>29.39644986127856</v>
+        <v>32.46694092718239</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>33.16382421891898</v>
+        <v>38.85516193776091</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>16.31477942381511</v>
+        <v>1.549703188420565</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>27.61166104647761</v>
+        <v>26.37550802805917</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>31.60128631355496</v>
+        <v>35.85178839065755</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>20.50634001022139</v>
+        <v>3.731988683191545</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>30.94405146795148</v>
+        <v>46.3325182649654</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>34.66396974593651</v>
+        <v>57.3403369616281</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>32.55914890332234</v>
+        <v>44.15984272931128</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>36.64108017560879</v>
+        <v>55.95763838131596</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>38.38427826398974</v>
+        <v>64.77798562237014</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>25.30264467535442</v>
+        <v>9.982195961999437</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>35.41916819080495</v>
+        <v>50.10820791309889</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>38.94558561021701</v>
+        <v>57.56334535526305</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>25.07956333605124</v>
+        <v>9.645378199172555</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>35.89700051217939</v>
+        <v>36.23219444778884</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>39.67021237375933</v>
+        <v>45.2714354042606</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>22.96521028020629</v>
+        <v>1.09115518879814</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>34.29544269761872</v>
+        <v>32.48143798447073</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>38.29431628421638</v>
+        <v>41.80303680717036</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>27.15282295866354</v>
+        <v>6.049196359329059</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>37.62306689645476</v>
+        <v>55.502907409607</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>41.34948175365942</v>
+        <v>69.90759598562768</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>39.37022276147907</v>
+        <v>64.26265953685318</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>43.47180582453919</v>
+        <v>77.08130386118312</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>45.20731876699632</v>
+        <v>86.57870544725559</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>32.06238247780588</v>
+        <v>13.29973396224763</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>42.21043505711606</v>
+        <v>62.41283069713238</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>45.74134767385955</v>
+        <v>74.90626978153317</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>1.106940379415242</v>
+        <v>19.48267553844444</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>12.12570489727743</v>
+        <v>31.52921864157535</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>15.96640059576936</v>
+        <v>36.48172161475323</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>-1.318115593452372</v>
+        <v>20.07738483623289</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>10.21869212193304</v>
+        <v>44.54018327985533</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>14.28701831420476</v>
+        <v>48.1646541002048</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>2.94584472445662</v>
+        <v>20.78476526157003</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>13.60529883830377</v>
+        <v>56.82305749459054</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>17.39878658223338</v>
+        <v>60.94980356665103</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>15.16022733174096</v>
+        <v>52.68642712889196</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>19.30934782451487</v>
+        <v>56.29913384284929</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>21.08402366705345</v>
+        <v>59.26422310340648</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>7.769869641667912</v>
+        <v>25.3128686683247</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>18.08608045909255</v>
+        <v>41.50845255703346</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>21.6932449455046</v>
+        <v>51.31689625935296</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>4.028749073663697</v>
+        <v>19.40586314759967</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>15.19248639263927</v>
+        <v>37.2632537819474</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>19.10123191429983</v>
+        <v>43.28572574388237</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>1.398242419613521</v>
+        <v>19.70618432351485</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>13.09213021999717</v>
+        <v>38.81190394768628</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>17.22986065521735</v>
+        <v>47.90794184040853</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>5.725805229699207</v>
+        <v>15.39165341299081</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>16.53033059755639</v>
+        <v>50.73814663299579</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>20.38843496975463</v>
+        <v>61.49454911562997</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>18.25820634916783</v>
+        <v>48.41177532007596</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>22.48397008171481</v>
+        <v>57.44330752501865</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>24.29646423093009</v>
+        <v>67.08736087867926</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>10.82413241237684</v>
+        <v>22.35255289623301</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>21.29457578726018</v>
+        <v>52.8824448836428</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>24.95324163204916</v>
+        <v>60.01505209800057</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>11.1222500034065</v>
+        <v>20.45647294343654</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>22.32018905827701</v>
+        <v>40.75979803477678</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>26.23507418847068</v>
+        <v>49.33133214381859</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>8.68434990093958</v>
+        <v>18.90539816557585</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>20.4133048238726</v>
+        <v>44.28332793545606</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>24.56076467918098</v>
+        <v>53.17174502511081</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>13.01075270179084</v>
+        <v>17.5908983613965</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>23.84946198232764</v>
+        <v>59.59153633910749</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>27.71441988462249</v>
+        <v>73.624574403767</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>25.71397354629539</v>
+        <v>68.08092776472738</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>29.96001137900396</v>
+        <v>78.19470284918559</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>31.76486089075838</v>
+        <v>88.43065214284665</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>18.22435942884641</v>
+        <v>25.68527483386883</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>28.72770532315289</v>
+        <v>64.59390694623873</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>32.39108732756618</v>
+        <v>76.8613623670016</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>12.58123956180606</v>
+        <v>9.706383086564628</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>23.23473555110504</v>
+        <v>25.17385238135951</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>26.93353920609482</v>
+        <v>31.73990491398182</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>10.43065890554354</v>
+        <v>3.398643904063235</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>21.58591919624081</v>
+        <v>28.27640128500876</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>25.50400098046672</v>
+        <v>33.38023478591656</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>14.56072053020163</v>
+        <v>9.480454663937181</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>24.86789824227522</v>
+        <v>48.43423523185599</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>28.52153424048348</v>
+        <v>54.57786765756261</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>26.28409989879072</v>
+        <v>49.79436869060571</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>30.28842291752967</v>
+        <v>55.78666909708504</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>31.99003348455141</v>
+        <v>56.33018401476743</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>19.04453474654477</v>
+        <v>10.10432272208554</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>29.0278014168187</v>
+        <v>35.50768087950023</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>32.50077063754971</v>
+        <v>43.74208851234907</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>15.39038511202261</v>
+        <v>8.547318956697026</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>26.18211178597478</v>
+        <v>29.34617311614834</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>29.94654086832408</v>
+        <v>36.21692619168424</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>13.04244103411222</v>
+        <v>0.8100814748194267</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>24.34752733293211</v>
+        <v>20.73805807050861</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>28.33247192395609</v>
+        <v>30.67138906428262</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>17.23329726478473</v>
+        <v>3.489630931107015</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>27.6788020394488</v>
+        <v>41.16508226200123</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>31.39472328665959</v>
+        <v>53.16921235473031</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>29.2610754633739</v>
+        <v>42.08785718863312</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>33.33842347216273</v>
+        <v>52.8349555277688</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>35.07633788583668</v>
+        <v>59.8365874862849</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>21.98046516815521</v>
+        <v>6.508375205758668</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>32.11058379474702</v>
+        <v>44.13408461612819</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>35.63348365946869</v>
+        <v>51.19489011770723</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>21.95044954156118</v>
+        <v>9.202964583276398</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>32.7776544016154</v>
+        <v>32.58795222491811</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>36.54747286479108</v>
+        <v>42.58768538561104</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>19.78368556309415</v>
+        <v>-1.055288471553396</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>31.12522500013065</v>
+        <v>25.31987701848142</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>35.11902443886943</v>
+        <v>35.47782215269184</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>23.973145121755</v>
+        <v>4.864655151173864</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>34.45413634765627</v>
+        <v>49.35049232424366</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>38.17611803719306</v>
+        <v>65.28162432276845</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>36.16898568608094</v>
+        <v>60.29624552409895</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>40.26705586689474</v>
+        <v>72.41044331956009</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>41.99723879300514</v>
+        <v>81.36092040240329</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>28.83641839469063</v>
+        <v>8.26206218886044</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>39.00074480995482</v>
+        <v>55.63566729126448</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>42.52752575692057</v>
+        <v>67.77004738771446</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>11.95061760274804</v>
+        <v>8.213032670997492</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>22.37534918153789</v>
+        <v>10.86074470257482</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>26.02638030749358</v>
+        <v>16.15871129634267</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>9.792332281852506</v>
+        <v>-2.619666418584998</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>20.7064873443425</v>
+        <v>11.23455797855955</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>24.57421118267292</v>
+        <v>15.46623175375565</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>13.84775147624853</v>
+        <v>2.391447197091438</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>23.93163817917345</v>
+        <v>26.19845606607034</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>27.5382881402145</v>
+        <v>31.71838238847384</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>25.33100293492214</v>
+        <v>26.84579989339501</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>29.25962398280785</v>
+        <v>27.99349655037473</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>30.94462268519012</v>
+        <v>32.88622938164333</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>18.25319242252667</v>
+        <v>4.390674392691878</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>28.01816452345943</v>
+        <v>14.61770580304248</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>31.44803388496733</v>
+        <v>22.47554861740745</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>14.76360402604025</v>
+        <v>12.10236402744464</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>25.32624129321241</v>
+        <v>22.19058621635723</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.0432799788044</v>
+        <v>30.57272386967536</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>12.41150466387635</v>
+        <v>2.195626296377142</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>23.47511907554378</v>
+        <v>12.59875881039365</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>27.41021357875345</v>
+        <v>24.41632246656552</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>16.52673655729681</v>
+        <v>3.515269781994604</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>26.74863913750511</v>
+        <v>28.41164740827968</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>30.41802046511917</v>
+        <v>42.58115195261091</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>28.31369271908627</v>
+        <v>30.81535468203795</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>32.31522366398161</v>
+        <v>37.09688639694922</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>34.03666086368941</v>
+        <v>49.68897053546068</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>21.19427956540356</v>
+        <v>7.218039884378911</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>31.10609613613677</v>
+        <v>33.00254963834776</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>34.58615001205215</v>
+        <v>41.40432583947283</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>21.2559987587786</v>
+        <v>14.25108569944275</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>31.85442780931298</v>
+        <v>27.46647150474514</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>35.57631984061805</v>
+        <v>38.27767303509866</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>19.08267845638663</v>
+        <v>1.282304038050469</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>30.18308229065324</v>
+        <v>18.71797864850213</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>34.12636478728653</v>
+        <v>30.31091701808894</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>23.19552992510929</v>
+        <v>5.672662249918844</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>33.45315313844561</v>
+        <v>37.91946871909123</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>37.12807588222745</v>
+        <v>55.21796609387214</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>35.14699543070124</v>
+        <v>49.20773272182053</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>39.16864695813237</v>
+        <v>56.50003662402092</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>40.88215067789535</v>
+        <v>70.10175472578872</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>27.97520523872926</v>
+        <v>9.121913085102122</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>37.92129617325458</v>
+        <v>44.20346400129107</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>41.40504602146765</v>
+        <v>57.59499539299198</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>0.5140141935008913</v>
+        <v>10.5101381392718</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>11.51526886794025</v>
+        <v>20.24715784295744</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>15.35774771185559</v>
+        <v>25.97267373349938</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>-1.921236465996394</v>
+        <v>5.666572630389837</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>9.597168006960612</v>
+        <v>27.37466572425835</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>13.66727204246465</v>
+        <v>31.96719656884885</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>2.338565132146663</v>
+        <v>8.836128310972455</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>12.9809511801386</v>
+        <v>41.8139478126531</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>16.77610793589009</v>
+        <v>46.93217434632463</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>14.53917210924829</v>
+        <v>37.90211541949581</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>18.6829450571289</v>
+        <v>41.11351883388504</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>20.45922255201922</v>
+        <v>45.19628774477808</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>7.160889365737242</v>
+        <v>12.83645075971127</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>17.46154648408011</v>
+        <v>27.71111307931305</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>21.07039136572221</v>
+        <v>38.16097813825182</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>3.410935796980365</v>
+        <v>8.141768923716299</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>14.55697459588372</v>
+        <v>23.75733957123119</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>18.46787102876695</v>
+        <v>31.10358937009674</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>0.7701770755704231</v>
+        <v>3.308608350840572</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>12.44546348940376</v>
+        <v>19.71494075190883</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>16.58537233292252</v>
+        <v>30.35438272721221</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>5.093299184941316</v>
+        <v>1.516645839714457</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>15.88057197539185</v>
+        <v>33.86541264701764</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>19.74071763119785</v>
+        <v>46.17549230101447</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>17.61147116917925</v>
+        <v>31.79005553029297</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>21.83182974628746</v>
+        <v>40.41562098734896</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>23.64607964999277</v>
+        <v>51.42634117167511</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>10.18951271718418</v>
+        <v>7.515434631099126</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>20.64426786569255</v>
+        <v>36.67037382863388</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>24.30495005016796</v>
+        <v>45.05535588913368</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>10.51554443815846</v>
+        <v>7.198748460411693</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>21.69625029428676</v>
+        <v>25.35622864176447</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>25.61300753224744</v>
+        <v>35.16577692218731</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>8.067745647916233</v>
+        <v>0.4520348443163158</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>19.77859179552825</v>
+        <v>23.24351270451957</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>23.92793119889775</v>
+        <v>33.58835759156564</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>12.38965101079267</v>
+        <v>1.615246886660842</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>23.21156576838254</v>
+        <v>40.72466180370687</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>27.07829013688595</v>
+        <v>56.21093896110885</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>25.07931490579454</v>
+        <v>49.34226720385222</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>29.32003925635815</v>
+        <v>58.9821084073083</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>31.12646987619821</v>
+        <v>70.59461388771105</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>17.6016742609178</v>
+        <v>8.756606786626307</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>28.08969501565011</v>
+        <v>46.25606928960183</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>31.75484467305557</v>
+        <v>59.77888864472887</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>16.99581439251522</v>
+        <v>14.90147986167396</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>27.56298961101746</v>
+        <v>30.27716803417941</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>31.23815018619468</v>
+        <v>34.4697140332007</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>14.93123039767242</v>
+        <v>9.368148692505443</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>25.99362733873403</v>
+        <v>40.19578774032514</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>29.887850573979</v>
+        <v>42.52025850155066</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>19.04610211259431</v>
+        <v>17.17915954765623</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>29.26739452579562</v>
+        <v>58.86458884523064</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>32.89860747135685</v>
+        <v>61.34691455112697</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>30.66220898191578</v>
+        <v>58.342002949286</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>34.63570743669111</v>
+        <v>61.22419692120185</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>36.32972865211258</v>
+        <v>61.97279647599483</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>23.46484469237358</v>
+        <v>19.54504187125364</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>33.36198101474089</v>
+        <v>40.98691671154701</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>36.81681209857682</v>
+        <v>50.9321090810095</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>19.82102724455011</v>
+        <v>14.35831089224679</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>30.52612651570651</v>
+        <v>35.12467673045647</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>34.26651103802617</v>
+        <v>39.59676937150063</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>17.55946840723729</v>
+        <v>6.344311482952904</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>28.77138477466536</v>
+        <v>31.47944774744671</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>32.73209344050839</v>
+        <v>38.76539633845427</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>21.73512239948755</v>
+        <v>10.63002242721534</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>32.09445184884918</v>
+        <v>51.22354966420035</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>35.78758336079313</v>
+        <v>59.52975076099726</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>33.6570694937608</v>
+        <v>51.17712533391362</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>37.70343529203409</v>
+        <v>58.70327070219675</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>39.43370918536107</v>
+        <v>65.2404340084373</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>26.41879898286696</v>
+        <v>15.53646629173956</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>36.46293274553437</v>
+        <v>50.50701304451304</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>39.96704183137692</v>
+        <v>56.96490213539688</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>26.25877785394178</v>
+        <v>13.03977073454816</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>37.00027088966601</v>
+        <v>36.74395964620733</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>40.74518178113151</v>
+        <v>43.54485473258821</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>24.17488214368424</v>
+        <v>2.877862997314352</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>35.424257147697</v>
+        <v>34.68032323525559</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>39.39284221094265</v>
+        <v>41.60047136041491</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>28.3485462229479</v>
+        <v>10.34425033811785</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>38.74425736931907</v>
+        <v>58.08763723608565</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>42.44257863161546</v>
+        <v>69.47287883423998</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>40.43690102271021</v>
+        <v>67.94801435861412</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>44.50423659732483</v>
+        <v>76.1535863456498</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>46.2263864613985</v>
+        <v>84.02945019784381</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>33.14638494824755</v>
+        <v>14.89942283755563</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>43.22557035768622</v>
+        <v>59.53125259287349</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>46.73295421350161</v>
+        <v>70.6067388689077</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>13.58310750585533</v>
+        <v>10.67102632301491</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>24.24335632885379</v>
+        <v>27.11905972233855</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>27.94373544261544</v>
+        <v>33.20965752631814</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>11.45270167600664</v>
+        <v>4.073769215035227</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>22.61500535239447</v>
+        <v>30.65230347440929</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>26.53479596794626</v>
+        <v>35.09816990671631</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>15.58586394213327</v>
+        <v>9.981074317627517</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>25.89955136207023</v>
+        <v>50.23908213153324</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>29.55474079417216</v>
+        <v>55.75660221854876</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>27.31855068424025</v>
+        <v>51.43139857873429</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>31.32635150261028</v>
+        <v>57.51926660850866</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>33.02874026116601</v>
+        <v>58.5353485106789</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>20.07326357319035</v>
+        <v>9.774401591334495</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>30.06221717263318</v>
+        <v>36.33134443455977</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>33.53672177883094</v>
+        <v>44.63483085011002</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>16.40665907847975</v>
+        <v>10.72785675080253</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>27.20524604236854</v>
+        <v>32.53450046792314</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>30.97131606275207</v>
+        <v>39.04683157109214</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>14.07869462808865</v>
+        <v>2.774980787427594</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>25.39095692754498</v>
+        <v>24.27710392416294</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>29.37767838033799</v>
+        <v>33.70858397040588</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>18.27278833426687</v>
+        <v>5.345490128769129</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>28.72492353562215</v>
+        <v>44.40296348355839</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>32.44245750237796</v>
+        <v>55.87508840521205</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>30.31055157004234</v>
+        <v>45.41807857272725</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>34.39147149603728</v>
+        <v>56.1963856578969</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>36.13024694441798</v>
+        <v>63.89953045836963</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>23.02423007321339</v>
+        <v>7.709160282347128</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>33.16023175611716</v>
+        <v>46.87958281499625</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>36.68468228750962</v>
+        <v>53.76576738653533</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>22.91754692418745</v>
+        <v>8.257945967973441</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>33.75108118302475</v>
+        <v>32.36848382185649</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>37.52265130730554</v>
+        <v>42.06104220973391</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>20.76986994256333</v>
+        <v>-2.838136493764054</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>32.11803498659762</v>
+        <v>24.75151418606397</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>36.11371170801744</v>
+        <v>34.5001519254627</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>24.96211230449797</v>
+        <v>2.891345656286333</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>35.44921028232515</v>
+        <v>48.43004262226658</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>39.17291177364197</v>
+        <v>63.86486282793466</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>37.16685333721476</v>
+        <v>59.52108878847984</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>41.26843942140732</v>
+        <v>71.29131512268613</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>42.99942272397909</v>
+        <v>80.87129873982342</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>29.82890327084677</v>
+        <v>5.478554980674161</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>39.9986200877911</v>
+        <v>53.75297794648144</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>43.52710155998794</v>
+        <v>65.94033911249504</v>
       </c>
     </row>
   </sheetData>
